--- a/analysis/fewshot.xlsx
+++ b/analysis/fewshot.xlsx
@@ -8,14 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariajahnke/Desktop/Desktop - Maria’s MacBook Pro/Masterthesis/Python/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C3AC6F-1E28-3547-A6DD-4B3B0FEDAA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7B6392-54A6-CE4B-A3EA-CB7FD1DB6A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$1</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1680,11 +1696,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1922,7 +1941,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>163</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -1931,24 +1950,24 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>164</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>49</v>
+        <v>165</v>
       </c>
       <c r="G10" t="s">
         <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -1957,24 +1976,24 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G11" t="s">
         <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
@@ -1983,24 +2002,24 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G12" t="s">
         <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
@@ -2009,24 +2028,24 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G13" t="s">
         <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
@@ -2035,24 +2054,24 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E14" t="s">
         <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G14" t="s">
         <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
@@ -2061,24 +2080,24 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E15" t="s">
         <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G15" t="s">
         <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
@@ -2087,24 +2106,24 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E16" t="s">
         <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G16" t="s">
         <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
@@ -2113,24 +2132,24 @@
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E17" t="s">
         <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G17" t="s">
         <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
@@ -2139,24 +2158,24 @@
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E18" t="s">
         <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s">
         <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
@@ -2165,19 +2184,19 @@
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E19" t="s">
         <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G19" t="s">
         <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -2208,7 +2227,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>91</v>
+        <v>167</v>
       </c>
       <c r="B21" t="s">
         <v>9</v>
@@ -2217,24 +2236,24 @@
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>92</v>
+        <v>168</v>
       </c>
       <c r="E21" t="s">
         <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>93</v>
+        <v>169</v>
       </c>
       <c r="G21" t="s">
         <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>94</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
@@ -2243,24 +2262,24 @@
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E22" t="s">
         <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G22" t="s">
         <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B23" t="s">
         <v>9</v>
@@ -2269,24 +2288,24 @@
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E23" t="s">
         <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G23" t="s">
         <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B24" t="s">
         <v>9</v>
@@ -2295,24 +2314,24 @@
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E24" t="s">
         <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G24" t="s">
         <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B25" t="s">
         <v>9</v>
@@ -2321,24 +2340,24 @@
         <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E25" t="s">
         <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G25" t="s">
         <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B26" t="s">
         <v>9</v>
@@ -2347,24 +2366,24 @@
         <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E26" t="s">
         <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G26" t="s">
         <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B27" t="s">
         <v>9</v>
@@ -2373,24 +2392,24 @@
         <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E27" t="s">
         <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G27" t="s">
         <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B28" t="s">
         <v>9</v>
@@ -2399,24 +2418,24 @@
         <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E28" t="s">
         <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G28" t="s">
         <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B29" t="s">
         <v>9</v>
@@ -2425,24 +2444,24 @@
         <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E29" t="s">
         <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G29" t="s">
         <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B30" t="s">
         <v>9</v>
@@ -2451,24 +2470,24 @@
         <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E30" t="s">
         <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G30" t="s">
         <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B31" t="s">
         <v>9</v>
@@ -2477,24 +2496,24 @@
         <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E31" t="s">
         <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G31" t="s">
         <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B32" t="s">
         <v>9</v>
@@ -2503,24 +2522,24 @@
         <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E32" t="s">
         <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G32" t="s">
         <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B33" t="s">
         <v>9</v>
@@ -2529,19 +2548,19 @@
         <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E33" t="s">
         <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G33" t="s">
         <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -2572,7 +2591,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>147</v>
+        <v>83</v>
       </c>
       <c r="B35" t="s">
         <v>9</v>
@@ -2581,24 +2600,24 @@
         <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>148</v>
+        <v>84</v>
       </c>
       <c r="E35" t="s">
         <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>149</v>
+        <v>85</v>
       </c>
       <c r="G35" t="s">
         <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>150</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="B36" t="s">
         <v>9</v>
@@ -2607,24 +2626,24 @@
         <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="E36" t="s">
         <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="G36" t="s">
         <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B37" t="s">
         <v>9</v>
@@ -2633,24 +2652,24 @@
         <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E37" t="s">
         <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="G37" t="s">
         <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B38" t="s">
         <v>9</v>
@@ -2659,24 +2678,24 @@
         <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="E38" t="s">
         <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="G38" t="s">
         <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B39" t="s">
         <v>9</v>
@@ -2685,24 +2704,24 @@
         <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="E39" t="s">
         <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G39" t="s">
         <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B40" t="s">
         <v>9</v>
@@ -2711,22 +2730,27 @@
         <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="E40" t="s">
         <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="G40" t="s">
         <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H40">
+      <sortCondition ref="A1:A40"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>